--- a/beadandok/results.xlsx
+++ b/beadandok/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\Parallel\beadandok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88361FBF-AC7D-446F-895F-382CB0FBEDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72FB3B6-23E8-4C03-89B5-7CCE8264E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Összesített" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -654,7 +654,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5705475" y="0"/>
-          <a:ext cx="5257800" cy="3067050"/>
+          <a:ext cx="4857750" cy="3067050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,8 +1160,7 @@
     <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
     <col min="3" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="11" width="14.28515625" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2534,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C971CD-3C39-4839-8891-C0481E28981A}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/beadandok/results.xlsx
+++ b/beadandok/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\Parallel\beadandok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72FB3B6-23E8-4C03-89B5-7CCE8264E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CD3A0-EE69-49E7-9E39-52F4B84E92CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Összesített" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
   <si>
     <t>Tömbméret</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Parallel (C#)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Azonos tömb mérete</t>
@@ -155,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -409,19 +406,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -449,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,9 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,9 +484,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,9 +494,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,25 +503,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -593,6 +559,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,8 +1139,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>6</v>
+      <c r="A1" s="41" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1180,126 +1155,126 @@
         <v>4</v>
       </c>
       <c r="F1" s="10"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>100000</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="33">
         <v>0.02</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="34">
         <v>0.02</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="34">
         <v>1.6E-2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="44">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>200000</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="35">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="36">
         <v>1.9E-2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="45">
         <v>0.16300000000000001</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>300000</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="35">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="36">
         <v>6.3E-2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="36">
         <v>2.4E-2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="45">
         <v>0.23300000000000001</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>400000</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="35">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="36">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="36">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="45">
         <v>0.30099999999999999</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>500000</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="37">
         <v>0.11</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="38">
         <v>0.107</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="38">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="46">
         <v>0.35699999999999998</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
@@ -1308,15 +1283,15 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>7</v>
+      <c r="A8" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
@@ -1330,127 +1305,127 @@
       <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>100000</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="33">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="34">
         <v>0.02</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="34">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="44">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>200000</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="35">
         <v>0.04</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="36">
         <v>3.9E-2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="45">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>300000</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="35">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="36">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="36">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="45">
         <v>0.245</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="30"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>400000</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="35">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="36">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="36">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="45">
         <v>0.312</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>500000</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="37">
         <v>0.1</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="38">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="38">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="46">
         <v>0.36199999999999999</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -1460,19 +1435,19 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>21</v>
+      <c r="B16" s="42" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>1</v>
@@ -1488,148 +1463,128 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>500000</v>
       </c>
-      <c r="B17" s="14">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D17" s="13">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="15">
-        <v>5.7000000000000002E-2</v>
+      <c r="B17" s="18">
+        <v>16</v>
+      </c>
+      <c r="C17" s="35">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D17" s="36">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E17" s="36">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F17" s="45">
+        <v>0.106</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="27">
         <v>500000</v>
       </c>
-      <c r="B18" s="20">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="B18" s="18">
+        <v>22</v>
+      </c>
+      <c r="C18" s="35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D18" s="36">
         <v>4.7E-2</v>
       </c>
-      <c r="D18" s="18">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0.106</v>
+      <c r="E18" s="36">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="27">
         <v>500000</v>
       </c>
-      <c r="B19" s="20">
-        <v>22</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="B19" s="18">
+        <v>30</v>
+      </c>
+      <c r="C19" s="35">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D19" s="36">
         <v>6.2E-2</v>
       </c>
-      <c r="D19" s="18">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="E19" s="36">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F19" s="45">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
         <v>500000</v>
       </c>
-      <c r="B20" s="20">
-        <v>30</v>
-      </c>
-      <c r="C20" s="17">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="B20" s="29">
+        <v>38</v>
+      </c>
+      <c r="C20" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D20" s="38">
         <v>6.2E-2</v>
       </c>
-      <c r="E20" s="18">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34">
-        <v>500000</v>
-      </c>
-      <c r="B21" s="35">
-        <v>38</v>
-      </c>
-      <c r="C21" s="22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D21" s="23">
-        <v>6.2E-2</v>
-      </c>
-      <c r="E21" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E20" s="38">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F20" s="46">
         <v>0.40899999999999997</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,271 +1607,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="37">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31">
         <v>100000</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="32">
         <v>200000</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="32">
         <v>300000</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="32">
         <v>400000</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="32">
         <v>500000</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C2" s="34">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D2" s="34">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E2" s="34">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B3" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="36">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E3" s="34">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F3" s="36">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="36">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D4" s="36">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E4" s="34">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F4" s="36">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="36">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E5" s="34">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C6" s="36">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D6" s="36">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E6" s="34">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C7" s="36">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="34">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F7" s="36">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D8" s="36">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E8" s="34">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C9" s="36">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D9" s="36">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C10" s="36">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D10" s="36">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E10" s="34">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F10" s="36">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="37">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C2" s="40">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D2" s="40">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E2" s="40">
+      <c r="C11" s="38">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="38">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F2" s="40">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="41">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C3" s="42">
-        <v>0.04</v>
-      </c>
-      <c r="D3" s="42">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="E3" s="40">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F3" s="42">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="41">
-        <v>0.02</v>
-      </c>
-      <c r="C4" s="42">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D4" s="42">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E4" s="40">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F4" s="42">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="41">
-        <v>0.02</v>
-      </c>
-      <c r="C5" s="42">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D5" s="42">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E5" s="40">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F5" s="42">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="41">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C6" s="42">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D6" s="42">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E6" s="40">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F6" s="42">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="41">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C7" s="42">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D7" s="42">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="40">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F7" s="42">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="41">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C8" s="42">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D8" s="42">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E8" s="40">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="41">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C9" s="42">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D9" s="42">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E9" s="40">
-        <v>0.08</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="41">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C10" s="42">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D10" s="42">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E10" s="40">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="F10" s="42">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="F11" s="38">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C11" s="44">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D11" s="44">
-        <v>0.06</v>
-      </c>
-      <c r="E11" s="44">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F11" s="44">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="39">
+      <c r="B12" s="33">
         <f>AVERAGE(B2:B11)</f>
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="34">
         <f>AVERAGE(C2:C11)</f>
         <v>3.7899999999999996E-2</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="34">
         <f t="shared" ref="D12:F12" si="0">AVERAGE(D2:D11)</f>
         <v>5.8899999999999994E-2</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="34">
         <f>AVERAGE(E2:E11)</f>
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="34">
         <f t="shared" si="0"/>
         <v>0.10459999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="35">
         <f>MAX(B2:B11)</f>
         <v>0.02</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="36">
         <f t="shared" ref="C13:F13" si="1">MAX(C2:C11)</f>
         <v>0.04</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <f>MAX(D2:D11)</f>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="36">
         <f t="shared" si="1"/>
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="36">
         <f t="shared" si="1"/>
         <v>0.121</v>
       </c>
@@ -1959,28 +1914,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="37">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31">
         <v>100000</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="32">
         <v>200000</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="32">
         <v>300000</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="32">
         <v>400000</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="32">
         <v>500000</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="12">
         <v>1.6E-2</v>
@@ -1999,231 +1954,231 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="E3" s="13">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>0.09</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E4" s="13">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E5" s="13">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16">
         <v>3.9E-2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>5.5E-2</v>
       </c>
       <c r="E6" s="13">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E7" s="13">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16">
         <v>1.6E-2</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>6.2E-2</v>
       </c>
       <c r="E8" s="13">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16">
         <v>1.6E-2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E9" s="13">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>0.129</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="A10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16">
         <v>2.7E-2</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="E10" s="13">
         <v>0.109</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C11" s="21">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D11" s="21">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.111</v>
+      </c>
+      <c r="F11" s="21">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C11" s="23">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D11" s="23">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.111</v>
-      </c>
-      <c r="F11" s="23">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="39">
+      <c r="B12" s="33">
         <f>AVERAGE(B2:B11)</f>
         <v>1.9700000000000002E-2</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="34">
         <f>AVERAGE(C2:C11)</f>
         <v>3.7200000000000004E-2</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="34">
         <f t="shared" ref="D12" si="0">AVERAGE(D2:D11)</f>
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="34">
         <f>AVERAGE(E2:E11)</f>
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="34">
         <f>AVERAGE(F2:F11)</f>
         <v>9.5399999999999985E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="35">
         <f>MAX(B2:B11)</f>
         <v>3.9E-2</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="36">
         <f t="shared" ref="C13:F13" si="1">MAX(C2:C11)</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <f>MAX(D2:D11)</f>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="36">
         <f t="shared" si="1"/>
         <v>0.111</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="36">
         <f t="shared" si="1"/>
         <v>0.129</v>
       </c>
@@ -2250,271 +2205,271 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="37">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31">
         <v>100000</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="32">
         <v>200000</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="32">
         <v>300000</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="32">
         <v>400000</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="32">
         <v>500000</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D2" s="34">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E2" s="34">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F2" s="34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B3" s="35">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C3" s="36">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E3" s="34">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F3" s="36">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="35">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C4" s="36">
         <v>0.02</v>
       </c>
-      <c r="C2" s="40">
+      <c r="D4" s="36">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E4" s="34">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F4" s="36">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="35">
         <v>2.3E-2</v>
       </c>
-      <c r="D2" s="40">
+      <c r="C5" s="36">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D5" s="36">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E5" s="34">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F5" s="36">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="36">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D6" s="36">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F6" s="36">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="36">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E7" s="34">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F7" s="36">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="36">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="35">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C9" s="36">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D9" s="36">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E9" s="34">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F9" s="36">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E10" s="34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F10" s="36">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="37">
         <v>2.3E-2</v>
       </c>
-      <c r="E2" s="40">
+      <c r="C11" s="38">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D11" s="38">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E11" s="38">
         <v>3.1E-2</v>
       </c>
-      <c r="F2" s="40">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="41">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C3" s="42">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D3" s="42">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E3" s="40">
+      <c r="F11" s="38">
         <v>3.1E-2</v>
       </c>
-      <c r="F3" s="42">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="41">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C4" s="42">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="42">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E4" s="40">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F4" s="42">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="41">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C5" s="42">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D5" s="42">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E5" s="40">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F5" s="42">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="41">
-        <v>0.02</v>
-      </c>
-      <c r="C6" s="42">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D6" s="42">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E6" s="40">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F6" s="42">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="41">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C7" s="42">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="42">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E7" s="40">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F7" s="42">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="41">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C8" s="42">
-        <v>0.02</v>
-      </c>
-      <c r="D8" s="42">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E8" s="40">
-        <v>0.03</v>
-      </c>
-      <c r="F8" s="42">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="41">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C9" s="42">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D9" s="42">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E9" s="40">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F9" s="42">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="41">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C10" s="42">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D10" s="42">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E10" s="40">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F10" s="42">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C11" s="44">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D11" s="44">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E11" s="44">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F11" s="44">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="39">
+      <c r="B12" s="33">
         <f>AVERAGE(B2:B11)</f>
         <v>2.0699999999999996E-2</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="34">
         <f>AVERAGE(C2:C11)</f>
         <v>2.1099999999999994E-2</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="34">
         <f t="shared" ref="D12:F12" si="0">AVERAGE(D2:D11)</f>
         <v>2.53E-2</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="34">
         <f>AVERAGE(E2:E11)</f>
         <v>3.1200000000000006E-2</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="34">
         <f t="shared" si="0"/>
         <v>3.4600000000000006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="35">
         <f>MAX(B2:B11)</f>
         <v>2.4E-2</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="36">
         <f t="shared" ref="C13:F13" si="1">MAX(C2:C11)</f>
         <v>2.4E-2</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <f>MAX(D2:D11)</f>
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="36">
         <f t="shared" si="1"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="36">
         <f t="shared" si="1"/>
         <v>4.3999999999999997E-2</v>
       </c>
@@ -2533,278 +2488,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C971CD-3C39-4839-8891-C0481E28981A}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="37">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31">
         <v>100000</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="32">
         <v>200000</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="32">
         <v>300000</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="32">
         <v>400000</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="32">
         <v>500000</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="33">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E2" s="34">
+        <v>0.378</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B3" s="35">
+        <v>0.09</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0.114</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0.36</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="35">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="35">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C2" s="40">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="D2" s="40">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E2" s="40">
-        <v>0.378</v>
-      </c>
-      <c r="F2" s="40">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="41">
-        <v>0.09</v>
-      </c>
-      <c r="C3" s="42">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="D3" s="42">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E3" s="40">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="F3" s="42">
-        <v>0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="41">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C4" s="42">
+      <c r="C7" s="36">
+        <v>0.193</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="35">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C9" s="36">
         <v>0.18099999999999999</v>
       </c>
-      <c r="D4" s="42">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E4" s="40">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="F4" s="42">
-        <v>0.46200000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="41">
-        <v>0.114</v>
-      </c>
-      <c r="C5" s="42">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="D5" s="42">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E5" s="40">
-        <v>0.36</v>
-      </c>
-      <c r="F5" s="42">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="41">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="C6" s="42">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D6" s="42">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="F6" s="42">
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="41">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C7" s="42">
-        <v>0.193</v>
-      </c>
-      <c r="D7" s="42">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="F7" s="42">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="41">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="C8" s="42">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="D8" s="42">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="E8" s="40">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0.47399999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="D9" s="36">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C9" s="42">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="D9" s="42">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="E9" s="40">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="B10" s="35">
+        <v>0.104</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.191</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.26</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0.372</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="41">
-        <v>0.104</v>
-      </c>
-      <c r="C10" s="42">
-        <v>0.191</v>
-      </c>
-      <c r="D10" s="42">
-        <v>0.26</v>
-      </c>
-      <c r="E10" s="40">
-        <v>0.372</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="B11" s="37">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.42</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="C11" s="44">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="D11" s="44">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="E11" s="44">
-        <v>0.42</v>
-      </c>
-      <c r="F11" s="44">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="39">
+      <c r="B12" s="33">
         <f>AVERAGE(B2:B11)</f>
         <v>9.4299999999999981E-2</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="34">
         <f>AVERAGE(C2:C11)</f>
         <v>0.18060000000000004</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="34">
         <f t="shared" ref="D12:F12" si="0">AVERAGE(D2:D11)</f>
         <v>0.27640000000000003</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="34">
         <f>AVERAGE(E2:E11)</f>
         <v>0.36139999999999994</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="34">
         <f t="shared" si="0"/>
         <v>0.44239999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="35">
         <f>MAX(B2:B11)</f>
         <v>0.114</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="36">
         <f t="shared" ref="C13:F13" si="1">MAX(C2:C11)</f>
         <v>0.22700000000000001</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <f>MAX(D2:D11)</f>
         <v>0.29699999999999999</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="36">
         <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="36">
         <f t="shared" si="1"/>
         <v>0.49299999999999999</v>
       </c>
